--- a/sheet_engine/static/template_sheets/teacher_subjects.xlsx
+++ b/sheet_engine/static/template_sheets/teacher_subjects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\static\template_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57A9F98-F2F3-4316-BB29-59498C3D5BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAB5892-5E56-45FC-AF14-85FE4B9912A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1650" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teacher_subjects" sheetId="1" r:id="rId1"/>
@@ -99,13 +99,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,140 +512,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -657,14 +657,14 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -676,27 +676,27 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>5</v>

--- a/sheet_engine/static/template_sheets/teacher_subjects.xlsx
+++ b/sheet_engine/static/template_sheets/teacher_subjects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\static\template_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrd/Documents/repositories/curie/sheet_engine/static/template_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAB5892-5E56-45FC-AF14-85FE4B9912A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78996B7D-D4FF-EC45-BC7A-7A2913579D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1650" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teacher_subjects" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>KETA SENIOR HIGH TECHNICAL SCHOOL</t>
-  </si>
   <si>
     <t>CLASS_ID</t>
   </si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>TEACHER ASSIGNMENT DATA SHEET</t>
+  </si>
+  <si>
+    <t>ANLO SENIOR HIGH TECHNICAL SCHOOL</t>
   </si>
 </sst>
 </file>
@@ -127,23 +127,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>580239</xdr:colOff>
+      <xdr:colOff>946150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>94296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370237E8-BD62-4621-AF3C-3B5691F042E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B89FA50-5F7D-8447-BA54-19497563A4E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -159,15 +159,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3333750" y="19050"/>
-          <a:ext cx="1332714" cy="1438275"/>
+          <a:off x="1847850" y="107950"/>
+          <a:ext cx="1638300" cy="1319846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -498,20 +495,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -528,7 +525,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -545,7 +542,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -562,7 +559,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -579,7 +576,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -596,7 +593,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -613,7 +610,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -630,7 +627,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -647,9 +644,9 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -666,9 +663,9 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -685,24 +682,24 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G11" s="1"/>
     </row>
